--- a/ExcelData/table.xlsx
+++ b/ExcelData/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULS\Desktop\folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULS\Desktop\StarAutomation\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1845315A-2460-4F3B-B393-74DD54FA11CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0697C66F-6DE4-499A-9B1A-6E4A187FFCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7545" yWindow="3165" windowWidth="17700" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28815" yWindow="1290" windowWidth="21135" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>Ядро запуска задачи</t>
   </si>
@@ -241,12 +241,129 @@
   <si>
     <t>L3 (29,6)</t>
   </si>
+  <si>
+    <t>78.5</t>
+  </si>
+  <si>
+    <t>79.5</t>
+  </si>
+  <si>
+    <t>78.6</t>
+  </si>
+  <si>
+    <t>79.6</t>
+  </si>
+  <si>
+    <t>78.7</t>
+  </si>
+  <si>
+    <t>79.7</t>
+  </si>
+  <si>
+    <t>78.8</t>
+  </si>
+  <si>
+    <t>79.8</t>
+  </si>
+  <si>
+    <t>78.9</t>
+  </si>
+  <si>
+    <t>79.9</t>
+  </si>
+  <si>
+    <t>78.10</t>
+  </si>
+  <si>
+    <t>79.10</t>
+  </si>
+  <si>
+    <t>78.11</t>
+  </si>
+  <si>
+    <t>30.23</t>
+  </si>
+  <si>
+    <t>31.30</t>
+  </si>
+  <si>
+    <t>30.24</t>
+  </si>
+  <si>
+    <t>31.31</t>
+  </si>
+  <si>
+    <t>30.25</t>
+  </si>
+  <si>
+    <t>31.32</t>
+  </si>
+  <si>
+    <t>30.26</t>
+  </si>
+  <si>
+    <t>31.33</t>
+  </si>
+  <si>
+    <t>30.27</t>
+  </si>
+  <si>
+    <t>31.34</t>
+  </si>
+  <si>
+    <t>30.28</t>
+  </si>
+  <si>
+    <t>31.35</t>
+  </si>
+  <si>
+    <t>30.29</t>
+  </si>
+  <si>
+    <t>0.773</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>0.1013</t>
+  </si>
+  <si>
+    <t>0.1073</t>
+  </si>
+  <si>
+    <t>0.1133</t>
+  </si>
+  <si>
+    <t>0.1193</t>
+  </si>
+  <si>
+    <t>0.1253</t>
+  </si>
+  <si>
+    <t>0.1313</t>
+  </si>
+  <si>
+    <t>0.1373</t>
+  </si>
+  <si>
+    <t>0.1433</t>
+  </si>
+  <si>
+    <t>0.1493</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +386,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -808,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,13 +1134,13 @@
         <v>12</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>12</v>
@@ -1070,13 +1194,13 @@
         <v>12</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>12</v>
@@ -1130,13 +1254,13 @@
         <v>12</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>12</v>
@@ -1190,13 +1314,13 @@
         <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>12</v>
@@ -1250,13 +1374,13 @@
         <v>12</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>12</v>
@@ -1310,13 +1434,13 @@
         <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>12</v>
@@ -1370,13 +1494,13 @@
         <v>12</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>12</v>
@@ -1430,13 +1554,13 @@
         <v>12</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>12</v>
@@ -1490,13 +1614,13 @@
         <v>12</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>12</v>
@@ -1550,13 +1674,13 @@
         <v>12</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>12</v>
@@ -1610,13 +1734,13 @@
         <v>12</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>12</v>
@@ -1670,13 +1794,13 @@
         <v>12</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>12</v>
@@ -1730,13 +1854,13 @@
         <v>12</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>12</v>
@@ -1762,6 +1886,7 @@
     <mergeCell ref="E5:O5"/>
     <mergeCell ref="P5:Z5"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/ExcelData/table.xlsx
+++ b/ExcelData/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULS\Desktop\StarAutomation\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0697C66F-6DE4-499A-9B1A-6E4A187FFCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AAB8F2-F1AD-46E2-88DD-C9E38D41D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="1290" windowWidth="21135" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27540" yWindow="1545" windowWidth="21135" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
   <si>
     <t>Ядро запуска задачи</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>0.1493</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
 </sst>
 </file>
@@ -932,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,22 +1146,28 @@
         <v>72</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W8" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1203,22 +1212,28 @@
         <v>73</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W9" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1263,22 +1278,28 @@
         <v>74</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W10" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1323,22 +1344,28 @@
         <v>75</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W11" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1383,22 +1410,28 @@
         <v>76</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W12" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1443,22 +1476,28 @@
         <v>77</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W13" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1503,22 +1542,28 @@
         <v>78</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W14" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1563,22 +1608,28 @@
         <v>79</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W15" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1623,22 +1674,28 @@
         <v>80</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W16" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1683,22 +1740,28 @@
         <v>81</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W17" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1743,22 +1806,28 @@
         <v>82</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W18" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1803,22 +1872,28 @@
         <v>83</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W19" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1863,22 +1938,28 @@
         <v>84</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="W20" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/table.xlsx
+++ b/ExcelData/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULS\Desktop\StarAutomation\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AAB8F2-F1AD-46E2-88DD-C9E38D41D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D186D2-B3E9-4375-9974-8C8936E8B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27540" yWindow="1545" windowWidth="21135" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="2445" windowWidth="20310" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
   <si>
     <t>Ядро запуска задачи</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
 </sst>
 </file>
@@ -935,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1149,7 @@
         <v>72</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>85</v>
@@ -1175,25 +1178,25 @@
         <v>1.2</v>
       </c>
       <c r="F9" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="3" t="s">
@@ -1221,7 +1224,7 @@
         <v>85</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>85</v>
@@ -1241,25 +1244,25 @@
         <v>13</v>
       </c>
       <c r="F10" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L10" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="3" t="s">
@@ -1293,7 +1296,7 @@
         <v>85</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>85</v>
@@ -1365,7 +1368,7 @@
         <v>85</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1410,7 +1413,7 @@
         <v>76</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>85</v>
@@ -1476,7 +1479,7 @@
         <v>77</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>85</v>
@@ -1542,7 +1545,7 @@
         <v>78</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>85</v>
@@ -1608,7 +1611,7 @@
         <v>79</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>85</v>
@@ -1674,7 +1677,7 @@
         <v>80</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>85</v>
@@ -1740,7 +1743,7 @@
         <v>81</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>85</v>
@@ -1806,7 +1809,7 @@
         <v>82</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>85</v>
@@ -1872,7 +1875,7 @@
         <v>83</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>85</v>
@@ -1938,7 +1941,7 @@
         <v>84</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>85</v>

--- a/ExcelData/table.xlsx
+++ b/ExcelData/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULS\Desktop\StarAutomation\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D186D2-B3E9-4375-9974-8C8936E8B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10416B-DEC0-4E2F-A77A-C306A62E50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4575" yWindow="2445" windowWidth="20310" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
   <si>
     <t>Ядро запуска задачи</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -938,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:R9"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,14 +1151,14 @@
       <c r="R8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>86</v>
+      <c r="S8" s="3">
+        <v>700</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>85</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>85</v>
@@ -1214,8 +1217,8 @@
       <c r="R9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>85</v>
+      <c r="S9" s="3">
+        <v>710</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>85</v>
@@ -1224,7 +1227,7 @@
         <v>85</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>85</v>
@@ -1280,8 +1283,8 @@
       <c r="R10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>85</v>
+      <c r="S10" s="3">
+        <v>720</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>85</v>
@@ -1296,7 +1299,7 @@
         <v>85</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>85</v>
@@ -1346,8 +1349,8 @@
       <c r="R11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>85</v>
+      <c r="S11" s="3">
+        <v>730</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>85</v>
@@ -1412,8 +1415,8 @@
       <c r="R12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>86</v>
+      <c r="S12" s="3">
+        <v>740</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>85</v>
@@ -1478,8 +1481,8 @@
       <c r="R13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>86</v>
+      <c r="S13" s="3">
+        <v>750</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>85</v>
@@ -1544,8 +1547,8 @@
       <c r="R14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>86</v>
+      <c r="S14" s="3">
+        <v>760</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>85</v>
@@ -1610,8 +1613,8 @@
       <c r="R15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>86</v>
+      <c r="S15" s="3">
+        <v>770</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>85</v>
@@ -1676,8 +1679,8 @@
       <c r="R16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>86</v>
+      <c r="S16" s="3">
+        <v>780</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>85</v>
@@ -1742,8 +1745,8 @@
       <c r="R17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>86</v>
+      <c r="S17" s="3">
+        <v>790</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>85</v>
@@ -1808,8 +1811,8 @@
       <c r="R18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>86</v>
+      <c r="S18" s="3">
+        <v>800</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>85</v>
@@ -1874,8 +1877,8 @@
       <c r="R19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>86</v>
+      <c r="S19" s="3">
+        <v>810</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>85</v>
@@ -1940,8 +1943,8 @@
       <c r="R20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>86</v>
+      <c r="S20" s="3">
+        <v>820</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>85</v>

--- a/ExcelData/table.xlsx
+++ b/ExcelData/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULS\Desktop\StarAutomation\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10416B-DEC0-4E2F-A77A-C306A62E50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D534875-1A67-47E6-9BAD-484900E762E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2445" windowWidth="20310" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="3930" windowWidth="20310" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,25 +1115,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F8" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J8" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L8" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="3" t="s">
@@ -1181,25 +1181,25 @@
         <v>1.2</v>
       </c>
       <c r="F9" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H9" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K9" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L9" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="3" t="s">
@@ -1247,25 +1247,25 @@
         <v>13</v>
       </c>
       <c r="F10" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I10" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J10" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K10" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="L10" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="3" t="s">
@@ -1313,25 +1313,25 @@
         <v>14</v>
       </c>
       <c r="F11" s="3">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="G11" s="3">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="H11" s="3">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="I11" s="3">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="J11" s="3">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="K11" s="3">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="L11" s="3">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="3" t="s">
@@ -1356,7 +1356,7 @@
         <v>85</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>85</v>
@@ -1379,25 +1379,25 @@
         <v>2.1</v>
       </c>
       <c r="F12" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G12" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I12" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J12" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K12" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L12" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="3" t="s">
@@ -1422,7 +1422,7 @@
         <v>85</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>85</v>
@@ -1445,25 +1445,25 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F13" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G13" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H13" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I13" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J13" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K13" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L13" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="3" t="s">
@@ -1488,7 +1488,7 @@
         <v>85</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V13" s="3" t="s">
         <v>85</v>
@@ -1511,25 +1511,25 @@
         <v>15</v>
       </c>
       <c r="F14" s="3">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G14" s="3">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="H14" s="3">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I14" s="3">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K14" s="3">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="L14" s="3">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="3" t="s">
@@ -1554,7 +1554,7 @@
         <v>85</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>85</v>
@@ -1577,25 +1577,25 @@
         <v>16</v>
       </c>
       <c r="F15" s="3">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G15" s="3">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I15" s="3">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J15" s="3">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K15" s="3">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L15" s="3">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="3" t="s">
@@ -1620,7 +1620,7 @@
         <v>85</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>85</v>
@@ -1643,25 +1643,25 @@
         <v>12</v>
       </c>
       <c r="F16" s="3">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G16" s="3">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="I16" s="3">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="J16" s="3">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K16" s="3">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="L16" s="3">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="3" t="s">
@@ -1686,7 +1686,7 @@
         <v>85</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>85</v>
@@ -1709,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="F17" s="3">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G17" s="3">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H17" s="3">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I17" s="3">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J17" s="3">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="K17" s="3">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L17" s="3">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="3" t="s">
@@ -1752,7 +1752,7 @@
         <v>85</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>85</v>
@@ -1775,25 +1775,25 @@
         <v>18</v>
       </c>
       <c r="F18" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G18" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H18" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I18" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J18" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K18" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L18" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="3" t="s">
@@ -1818,7 +1818,7 @@
         <v>85</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>85</v>
@@ -1841,25 +1841,25 @@
         <v>19</v>
       </c>
       <c r="F19" s="3">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="H19" s="3">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I19" s="3">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J19" s="3">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="K19" s="3">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L19" s="3">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="3" t="s">
@@ -1884,7 +1884,7 @@
         <v>85</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>85</v>
@@ -1907,25 +1907,25 @@
         <v>20</v>
       </c>
       <c r="F20" s="3">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G20" s="3">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="H20" s="3">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="I20" s="3">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="J20" s="3">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="K20" s="3">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="L20" s="3">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="3" t="s">
@@ -1950,7 +1950,7 @@
         <v>85</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>85</v>

--- a/ExcelData/table.xlsx
+++ b/ExcelData/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULS\Desktop\StarAutomation\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D534875-1A67-47E6-9BAD-484900E762E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086C4DD-6473-4F05-95B7-F34C64711BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="3930" windowWidth="20310" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="3930" windowWidth="20310" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="60">
   <si>
     <t>Ядро запуска задачи</t>
   </si>
@@ -251,36 +251,6 @@
     <t>78.6</t>
   </si>
   <si>
-    <t>79.6</t>
-  </si>
-  <si>
-    <t>78.7</t>
-  </si>
-  <si>
-    <t>79.7</t>
-  </si>
-  <si>
-    <t>78.8</t>
-  </si>
-  <si>
-    <t>79.8</t>
-  </si>
-  <si>
-    <t>78.9</t>
-  </si>
-  <si>
-    <t>79.9</t>
-  </si>
-  <si>
-    <t>78.10</t>
-  </si>
-  <si>
-    <t>79.10</t>
-  </si>
-  <si>
-    <t>78.11</t>
-  </si>
-  <si>
     <t>30.23</t>
   </si>
   <si>
@@ -290,36 +260,6 @@
     <t>30.24</t>
   </si>
   <si>
-    <t>31.31</t>
-  </si>
-  <si>
-    <t>30.25</t>
-  </si>
-  <si>
-    <t>31.32</t>
-  </si>
-  <si>
-    <t>30.26</t>
-  </si>
-  <si>
-    <t>31.33</t>
-  </si>
-  <si>
-    <t>30.27</t>
-  </si>
-  <si>
-    <t>31.34</t>
-  </si>
-  <si>
-    <t>30.28</t>
-  </si>
-  <si>
-    <t>31.35</t>
-  </si>
-  <si>
-    <t>30.29</t>
-  </si>
-  <si>
     <t>0.773</t>
   </si>
   <si>
@@ -329,43 +269,19 @@
     <t>0.893</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>0.1013</t>
-  </si>
-  <si>
-    <t>0.1073</t>
-  </si>
-  <si>
-    <t>0.1133</t>
-  </si>
-  <si>
-    <t>0.1193</t>
-  </si>
-  <si>
-    <t>0.1253</t>
-  </si>
-  <si>
-    <t>0.1313</t>
-  </si>
-  <si>
-    <t>0.1373</t>
-  </si>
-  <si>
-    <t>0.1433</t>
-  </si>
-  <si>
-    <t>0.1493</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>60.63</t>
+  </si>
+  <si>
+    <t>23.80</t>
+  </si>
+  <si>
+    <t>0.5556</t>
   </si>
 </sst>
 </file>
@@ -941,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,34 +1062,34 @@
         <v>46</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="S8" s="3">
         <v>700</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1212,34 +1128,34 @@
         <v>47</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="S9" s="3">
         <v>710</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1278,34 +1194,34 @@
         <v>48</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="S10" s="3">
         <v>720</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1341,37 +1257,37 @@
         <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="S11" s="3">
-        <v>730</v>
+        <v>471</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1407,37 +1323,37 @@
         <v>12</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="S12" s="3">
-        <v>740</v>
+        <v>471</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1473,37 +1389,37 @@
         <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="S13" s="3">
-        <v>750</v>
+        <v>471</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1539,37 +1455,37 @@
         <v>12</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="S14" s="3">
-        <v>760</v>
+        <v>471</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1605,37 +1521,37 @@
         <v>12</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="S15" s="3">
-        <v>770</v>
+        <v>471</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1671,37 +1587,37 @@
         <v>12</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="S16" s="3">
-        <v>780</v>
+        <v>471</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1737,37 +1653,37 @@
         <v>12</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="S17" s="3">
-        <v>790</v>
+        <v>471</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1803,37 +1719,37 @@
         <v>12</v>
       </c>
       <c r="P18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="3">
+        <v>471</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="S18" s="3">
-        <v>800</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="V18" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1872,34 +1788,34 @@
         <v>57</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="S19" s="3">
-        <v>810</v>
+        <v>471</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1935,37 +1851,37 @@
         <v>12</v>
       </c>
       <c r="P20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="R20" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="S20" s="3">
-        <v>820</v>
+        <v>471</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/table.xlsx
+++ b/ExcelData/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULS\Desktop\StarAutomation\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086C4DD-6473-4F05-95B7-F34C64711BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069D91D6-210F-42B4-A7B6-DF6CDE22AD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="3930" windowWidth="20310" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="2880" windowWidth="20310" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Ядро запуска задачи</t>
   </si>
@@ -128,27 +128,6 @@
     <t>1….</t>
   </si>
   <si>
-    <t>1.n</t>
-  </si>
-  <si>
-    <t>2….</t>
-  </si>
-  <si>
-    <t>2.n</t>
-  </si>
-  <si>
-    <t>i.1</t>
-  </si>
-  <si>
-    <t>i.2</t>
-  </si>
-  <si>
-    <t>i….</t>
-  </si>
-  <si>
-    <t>i.n</t>
-  </si>
-  <si>
     <t>Ядро создания геометрии (в Компас 3 D)</t>
   </si>
   <si>
@@ -242,39 +221,9 @@
     <t>L3 (29,6)</t>
   </si>
   <si>
-    <t>78.5</t>
-  </si>
-  <si>
-    <t>79.5</t>
-  </si>
-  <si>
-    <t>78.6</t>
-  </si>
-  <si>
     <t>30.23</t>
   </si>
   <si>
-    <t>31.30</t>
-  </si>
-  <si>
-    <t>30.24</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.833</t>
-  </si>
-  <si>
-    <t>0.893</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>60.63</t>
   </si>
   <si>
@@ -282,6 +231,57 @@
   </si>
   <si>
     <t>0.5556</t>
+  </si>
+  <si>
+    <t>0.211350856747863</t>
+  </si>
+  <si>
+    <t>0.757494675506747</t>
+  </si>
+  <si>
+    <t>0.0100278443055474</t>
+  </si>
+  <si>
+    <t>0.0211266234398427</t>
+  </si>
+  <si>
+    <t>77.01</t>
+  </si>
+  <si>
+    <t>0.7334</t>
+  </si>
+  <si>
+    <t>0.219523484388595</t>
+  </si>
+  <si>
+    <t>0.764288409822134</t>
+  </si>
+  <si>
+    <t>0.00521054655092171</t>
+  </si>
+  <si>
+    <t>0.0109775592383496</t>
+  </si>
+  <si>
+    <t>89.89</t>
+  </si>
+  <si>
+    <t>35.29</t>
+  </si>
+  <si>
+    <t>0.8477</t>
+  </si>
+  <si>
+    <t>0.220012819491619</t>
+  </si>
+  <si>
+    <t>0.763956240794734</t>
+  </si>
+  <si>
+    <t>0.00515995872033024</t>
+  </si>
+  <si>
+    <t>0.0108709809933171</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -855,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:Z20"/>
+  <dimension ref="E4:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
     <row r="4" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -901,28 +901,28 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>2</v>
@@ -943,13 +943,13 @@
         <v>7</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>8</v>
@@ -966,64 +966,64 @@
     </row>
     <row r="7" spans="5:26" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1059,37 +1059,37 @@
         <v>12</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="3">
+        <v>475</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="3">
-        <v>700</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1128,60 +1128,60 @@
         <v>47</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="S9" s="3">
-        <v>710</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>56</v>
+        <v>481</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="10" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I10" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J10" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K10" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L10" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="3" t="s">
@@ -1191,697 +1191,37 @@
         <v>12</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" s="3">
-        <v>720</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>55</v>
+        <v>488</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3">
-        <v>70</v>
-      </c>
-      <c r="G11" s="3">
-        <v>70</v>
-      </c>
-      <c r="H11" s="3">
-        <v>70</v>
-      </c>
-      <c r="I11" s="3">
-        <v>70</v>
-      </c>
-      <c r="J11" s="3">
-        <v>70</v>
-      </c>
-      <c r="K11" s="3">
-        <v>70</v>
-      </c>
-      <c r="L11" s="3">
-        <v>70</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="S11" s="3">
-        <v>471</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>70</v>
-      </c>
-      <c r="G12" s="3">
-        <v>70</v>
-      </c>
-      <c r="H12" s="3">
-        <v>70</v>
-      </c>
-      <c r="I12" s="3">
-        <v>70</v>
-      </c>
-      <c r="J12" s="3">
-        <v>70</v>
-      </c>
-      <c r="K12" s="3">
-        <v>70</v>
-      </c>
-      <c r="L12" s="3">
-        <v>70</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" s="3">
-        <v>471</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F13" s="3">
-        <v>70</v>
-      </c>
-      <c r="G13" s="3">
-        <v>70</v>
-      </c>
-      <c r="H13" s="3">
-        <v>70</v>
-      </c>
-      <c r="I13" s="3">
-        <v>70</v>
-      </c>
-      <c r="J13" s="3">
-        <v>70</v>
-      </c>
-      <c r="K13" s="3">
-        <v>70</v>
-      </c>
-      <c r="L13" s="3">
-        <v>70</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="3">
-        <v>471</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
-        <v>70</v>
-      </c>
-      <c r="G14" s="3">
-        <v>70</v>
-      </c>
-      <c r="H14" s="3">
-        <v>70</v>
-      </c>
-      <c r="I14" s="3">
-        <v>70</v>
-      </c>
-      <c r="J14" s="3">
-        <v>70</v>
-      </c>
-      <c r="K14" s="3">
-        <v>70</v>
-      </c>
-      <c r="L14" s="3">
-        <v>70</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" s="3">
-        <v>471</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="3">
-        <v>70</v>
-      </c>
-      <c r="G15" s="3">
-        <v>70</v>
-      </c>
-      <c r="H15" s="3">
-        <v>70</v>
-      </c>
-      <c r="I15" s="3">
-        <v>70</v>
-      </c>
-      <c r="J15" s="3">
-        <v>70</v>
-      </c>
-      <c r="K15" s="3">
-        <v>70</v>
-      </c>
-      <c r="L15" s="3">
-        <v>70</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" s="3">
-        <v>471</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3">
-        <v>70</v>
-      </c>
-      <c r="G16" s="3">
-        <v>70</v>
-      </c>
-      <c r="H16" s="3">
-        <v>70</v>
-      </c>
-      <c r="I16" s="3">
-        <v>70</v>
-      </c>
-      <c r="J16" s="3">
-        <v>70</v>
-      </c>
-      <c r="K16" s="3">
-        <v>70</v>
-      </c>
-      <c r="L16" s="3">
-        <v>70</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="3">
-        <v>471</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3">
-        <v>70</v>
-      </c>
-      <c r="G17" s="3">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3">
-        <v>70</v>
-      </c>
-      <c r="I17" s="3">
-        <v>70</v>
-      </c>
-      <c r="J17" s="3">
-        <v>70</v>
-      </c>
-      <c r="K17" s="3">
-        <v>70</v>
-      </c>
-      <c r="L17" s="3">
-        <v>70</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S17" s="3">
-        <v>471</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3">
-        <v>70</v>
-      </c>
-      <c r="G18" s="3">
-        <v>70</v>
-      </c>
-      <c r="H18" s="3">
-        <v>70</v>
-      </c>
-      <c r="I18" s="3">
-        <v>70</v>
-      </c>
-      <c r="J18" s="3">
-        <v>70</v>
-      </c>
-      <c r="K18" s="3">
-        <v>70</v>
-      </c>
-      <c r="L18" s="3">
-        <v>70</v>
-      </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S18" s="3">
-        <v>471</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="3">
-        <v>70</v>
-      </c>
-      <c r="G19" s="3">
-        <v>70</v>
-      </c>
-      <c r="H19" s="3">
-        <v>70</v>
-      </c>
-      <c r="I19" s="3">
-        <v>70</v>
-      </c>
-      <c r="J19" s="3">
-        <v>70</v>
-      </c>
-      <c r="K19" s="3">
-        <v>70</v>
-      </c>
-      <c r="L19" s="3">
-        <v>70</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S19" s="3">
-        <v>471</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3">
-        <v>70</v>
-      </c>
-      <c r="G20" s="3">
-        <v>70</v>
-      </c>
-      <c r="H20" s="3">
-        <v>70</v>
-      </c>
-      <c r="I20" s="3">
-        <v>70</v>
-      </c>
-      <c r="J20" s="3">
-        <v>70</v>
-      </c>
-      <c r="K20" s="3">
-        <v>70</v>
-      </c>
-      <c r="L20" s="3">
-        <v>70</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S20" s="3">
-        <v>471</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
